--- a/map_matrix.xlsx
+++ b/map_matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFile\学习资料\数据结构\homework\homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFile\学习资料\数据结构\homework\homework\source code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BA58BA-2A5D-4076-AEF1-499FBA80CE9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27CA77-81A4-4C83-9C5F-637443E0C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置x</t>
+  </si>
+  <si>
+    <t>位置y</t>
+  </si>
+  <si>
+    <t>连接节点</t>
+  </si>
+  <si>
+    <t>南门</t>
+  </si>
+  <si>
+    <t>同心同德楼</t>
+  </si>
+  <si>
+    <t>济人济事楼</t>
+  </si>
+  <si>
+    <t>A楼</t>
+  </si>
+  <si>
+    <t>DE楼</t>
+  </si>
+  <si>
+    <t>BC楼</t>
+  </si>
+  <si>
+    <t>HFG楼</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +79,333 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -67,16 +413,294 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="41" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41" xr:uid="{229DC7C1-122E-4C0C-A1CD-6E0AB3933229}"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42" xr:uid="{AA384FF6-DD54-4CCD-AF20-74C7448E6366}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,174 +978,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>9999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9999</v>
-      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9999</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
         <v>20</v>
       </c>
-      <c r="C4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9999</v>
-      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9999</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>9999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>9999</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>9999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>9999</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
